--- a/data/pca/factorExposure/factorExposure_2010-06-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-06-04.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01258748301777893</v>
+        <v>-0.0168564373032311</v>
       </c>
       <c r="C2">
-        <v>-0.002147882383297824</v>
+        <v>0.0009053766403030448</v>
       </c>
       <c r="D2">
-        <v>-0.01288755433570129</v>
+        <v>0.008512470633277574</v>
       </c>
       <c r="E2">
-        <v>-0.03297692578548777</v>
+        <v>0.002605027465855393</v>
       </c>
       <c r="F2">
-        <v>-0.007167560151301129</v>
+        <v>-0.01267824782544528</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1219053956322263</v>
+        <v>-0.09509457284374613</v>
       </c>
       <c r="C4">
-        <v>-0.1013046638923391</v>
+        <v>0.01755040071586553</v>
       </c>
       <c r="D4">
-        <v>0.01050305672338505</v>
+        <v>0.08083536511123776</v>
       </c>
       <c r="E4">
-        <v>-0.04102873412438465</v>
+        <v>-0.02647846318392879</v>
       </c>
       <c r="F4">
-        <v>0.1954568774162211</v>
+        <v>0.03577411982657969</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1330840874985922</v>
+        <v>-0.1521147796038278</v>
       </c>
       <c r="C6">
-        <v>-0.05895890397735388</v>
+        <v>0.02453563454258046</v>
       </c>
       <c r="D6">
-        <v>0.007949303055965487</v>
+        <v>-0.02383263644300716</v>
       </c>
       <c r="E6">
-        <v>-0.02702188496393923</v>
+        <v>-0.01448371485385479</v>
       </c>
       <c r="F6">
-        <v>0.03201373694345939</v>
+        <v>0.03951675874104611</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06819868163762467</v>
+        <v>-0.0617234639081328</v>
       </c>
       <c r="C7">
-        <v>-0.0736020070441806</v>
+        <v>2.425291133267578e-05</v>
       </c>
       <c r="D7">
-        <v>-0.01262627083688174</v>
+        <v>0.05173315971525672</v>
       </c>
       <c r="E7">
-        <v>0.00191390156155276</v>
+        <v>-0.01308169450534468</v>
       </c>
       <c r="F7">
-        <v>0.01122219993472847</v>
+        <v>0.05624889255420951</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.04548812872113105</v>
+        <v>-0.05946940149708371</v>
       </c>
       <c r="C8">
-        <v>-0.02292419012421222</v>
+        <v>-0.01270549903728326</v>
       </c>
       <c r="D8">
-        <v>0.005418618131974054</v>
+        <v>0.02776490869871823</v>
       </c>
       <c r="E8">
-        <v>-0.02902137085072215</v>
+        <v>-0.01231951284791542</v>
       </c>
       <c r="F8">
-        <v>0.1506777504000306</v>
+        <v>-0.02539334224085774</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.08574657850794758</v>
+        <v>-0.07240198362329524</v>
       </c>
       <c r="C9">
-        <v>-0.07449636225426529</v>
+        <v>0.0137222303611514</v>
       </c>
       <c r="D9">
-        <v>0.02630840370503574</v>
+        <v>0.08073540294426086</v>
       </c>
       <c r="E9">
-        <v>-0.02743373464438358</v>
+        <v>-0.02124367158876457</v>
       </c>
       <c r="F9">
-        <v>0.1576488669558861</v>
+        <v>0.05714913280185565</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.1319584593271799</v>
+        <v>-0.0920596534519998</v>
       </c>
       <c r="C10">
-        <v>0.1676136500048115</v>
+        <v>0.01484806466147509</v>
       </c>
       <c r="D10">
-        <v>-0.01433475736408696</v>
+        <v>-0.1730025856148802</v>
       </c>
       <c r="E10">
-        <v>-0.0295850564482442</v>
+        <v>0.03468746544170717</v>
       </c>
       <c r="F10">
-        <v>-0.04891740747305598</v>
+        <v>-0.05233439752156325</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.06634436763770232</v>
+        <v>-0.08824699588529136</v>
       </c>
       <c r="C11">
-        <v>-0.06469734322447318</v>
+        <v>0.01288401209836672</v>
       </c>
       <c r="D11">
-        <v>0.04243720767066066</v>
+        <v>0.1112690375577071</v>
       </c>
       <c r="E11">
-        <v>-0.01998967760656285</v>
+        <v>-0.04174196229679827</v>
       </c>
       <c r="F11">
-        <v>0.08970046724879149</v>
+        <v>0.02495696475429916</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.067332182678386</v>
+        <v>-0.09335526083230329</v>
       </c>
       <c r="C12">
-        <v>-0.07276083129086278</v>
+        <v>0.0108473111387399</v>
       </c>
       <c r="D12">
-        <v>0.05400061931443743</v>
+        <v>0.1185823661973999</v>
       </c>
       <c r="E12">
-        <v>0.013988906708541</v>
+        <v>-0.04018702470693905</v>
       </c>
       <c r="F12">
-        <v>0.09646355054837095</v>
+        <v>0.02736023751113458</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.03783370656291279</v>
+        <v>-0.0440951334537182</v>
       </c>
       <c r="C13">
-        <v>-0.04463145196928219</v>
+        <v>0.004596090779349778</v>
       </c>
       <c r="D13">
-        <v>-0.02120906142315348</v>
+        <v>0.04394341792737898</v>
       </c>
       <c r="E13">
-        <v>0.006015250200528343</v>
+        <v>0.01461487848217263</v>
       </c>
       <c r="F13">
-        <v>0.04192574187971432</v>
+        <v>0.01822962759712898</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.03492455815620673</v>
+        <v>-0.02202929016648917</v>
       </c>
       <c r="C14">
-        <v>-0.03654189210008125</v>
+        <v>0.01493368357253583</v>
       </c>
       <c r="D14">
-        <v>0.02044187441574889</v>
+        <v>0.03215532974501588</v>
       </c>
       <c r="E14">
-        <v>-0.002752905818504374</v>
+        <v>-0.01651141661206901</v>
       </c>
       <c r="F14">
-        <v>0.06102232517589137</v>
+        <v>0.02162517186637174</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.01960438835187517</v>
+        <v>-0.03268610029001118</v>
       </c>
       <c r="C15">
-        <v>-0.01829770873705462</v>
+        <v>0.005799288148197493</v>
       </c>
       <c r="D15">
-        <v>-0.06865322703602819</v>
+        <v>0.04372422538265155</v>
       </c>
       <c r="E15">
-        <v>-0.02347211891530477</v>
+        <v>-0.007805253417418842</v>
       </c>
       <c r="F15">
-        <v>0.0109349683434439</v>
+        <v>0.03289589151884125</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07499582289583295</v>
+        <v>-0.07544485587656982</v>
       </c>
       <c r="C16">
-        <v>-0.08001174550403464</v>
+        <v>0.004700411755618236</v>
       </c>
       <c r="D16">
-        <v>0.0401593287998718</v>
+        <v>0.1155193033050829</v>
       </c>
       <c r="E16">
-        <v>-0.008415430594007275</v>
+        <v>-0.05709237900385089</v>
       </c>
       <c r="F16">
-        <v>0.08658000686891487</v>
+        <v>0.03419326042128573</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.0206066044045082</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.003813149065066346</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.02169488734145399</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.01037234284514304</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>-0.0252751558418682</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.04830930610399109</v>
+        <v>-0.06182376740630654</v>
       </c>
       <c r="C20">
-        <v>-0.02539762674926412</v>
+        <v>0.002273461716068613</v>
       </c>
       <c r="D20">
-        <v>-0.03113315221208568</v>
+        <v>0.0707024156102376</v>
       </c>
       <c r="E20">
-        <v>0.02976545874896323</v>
+        <v>-0.05124895904697269</v>
       </c>
       <c r="F20">
-        <v>0.08106001380090233</v>
+        <v>0.03008313662605443</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.02504386301131377</v>
+        <v>-0.03899870302257084</v>
       </c>
       <c r="C21">
-        <v>-0.02103981183607645</v>
+        <v>0.007868430379925358</v>
       </c>
       <c r="D21">
-        <v>0.01730804664391564</v>
+        <v>0.03341338563199067</v>
       </c>
       <c r="E21">
-        <v>-0.004438992299105963</v>
+        <v>0.01215442420138543</v>
       </c>
       <c r="F21">
-        <v>0.05195756995938113</v>
+        <v>-0.01781467279270555</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.05792524597570516</v>
+        <v>-0.04325542320861001</v>
       </c>
       <c r="C22">
-        <v>-0.03053757855239879</v>
+        <v>0.0004814797778806127</v>
       </c>
       <c r="D22">
-        <v>-0.6399879991705908</v>
+        <v>0.002631329028496727</v>
       </c>
       <c r="E22">
-        <v>0.1769171495767901</v>
+        <v>-0.03309563782521079</v>
       </c>
       <c r="F22">
-        <v>0.02330770636409921</v>
+        <v>-0.01448829026396486</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.0587890136805518</v>
+        <v>-0.04334315249852224</v>
       </c>
       <c r="C23">
-        <v>-0.03234182668527963</v>
+        <v>0.0005140535267697088</v>
       </c>
       <c r="D23">
-        <v>-0.6422707432725003</v>
+        <v>0.002825972798108764</v>
       </c>
       <c r="E23">
-        <v>0.1755590001645751</v>
+        <v>-0.03350731651547524</v>
       </c>
       <c r="F23">
-        <v>0.02820120182090907</v>
+        <v>-0.01395972948863015</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.07430088910134267</v>
+        <v>-0.08176949619325861</v>
       </c>
       <c r="C24">
-        <v>-0.07918645351643953</v>
+        <v>0.00485351360286481</v>
       </c>
       <c r="D24">
-        <v>0.03138411046708948</v>
+        <v>0.1152729412693078</v>
       </c>
       <c r="E24">
-        <v>-0.0154092230487911</v>
+        <v>-0.04530151872202642</v>
       </c>
       <c r="F24">
-        <v>0.08952703500666413</v>
+        <v>0.02611237377874621</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.07352846917536264</v>
+        <v>-0.08582618408024889</v>
       </c>
       <c r="C25">
-        <v>-0.0618151240913265</v>
+        <v>0.006814606410256928</v>
       </c>
       <c r="D25">
-        <v>0.05780724048692441</v>
+        <v>0.102170876055699</v>
       </c>
       <c r="E25">
-        <v>-0.01703386200841742</v>
+        <v>-0.02765594331774499</v>
       </c>
       <c r="F25">
-        <v>0.0934746330611276</v>
+        <v>0.03463209866787454</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.04273314390621104</v>
+        <v>-0.05654732073327209</v>
       </c>
       <c r="C26">
-        <v>-0.002229216733865876</v>
+        <v>0.0156631019667997</v>
       </c>
       <c r="D26">
-        <v>-0.01339290282978761</v>
+        <v>0.03309039595387117</v>
       </c>
       <c r="E26">
-        <v>0.05381276575537439</v>
+        <v>-0.02345131803746726</v>
       </c>
       <c r="F26">
-        <v>0.07887546245893479</v>
+        <v>-0.005250376986091776</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1605763177992721</v>
+        <v>-0.1381217396085512</v>
       </c>
       <c r="C28">
-        <v>0.2705835337205499</v>
+        <v>0.01221658361629984</v>
       </c>
       <c r="D28">
-        <v>0.008059098797882316</v>
+        <v>-0.271536542931985</v>
       </c>
       <c r="E28">
-        <v>0.01238813573877956</v>
+        <v>0.06671030499645056</v>
       </c>
       <c r="F28">
-        <v>0.04145234415710387</v>
+        <v>0.03705518294365916</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.03589498759100662</v>
+        <v>-0.0274892338682527</v>
       </c>
       <c r="C29">
-        <v>-0.03509408122016785</v>
+        <v>0.009214128247291719</v>
       </c>
       <c r="D29">
-        <v>0.01953954946972596</v>
+        <v>0.03061021485566302</v>
       </c>
       <c r="E29">
-        <v>0.00334573411404473</v>
+        <v>-0.009153856257443348</v>
       </c>
       <c r="F29">
-        <v>0.06311080510414603</v>
+        <v>-0.009313641431300597</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.09324246057233204</v>
+        <v>-0.06496484948210651</v>
       </c>
       <c r="C30">
-        <v>-0.05459016902018423</v>
+        <v>0.006629159833477026</v>
       </c>
       <c r="D30">
-        <v>0.04063181644625979</v>
+        <v>0.07909794517270512</v>
       </c>
       <c r="E30">
-        <v>0.2331848616635605</v>
+        <v>-0.02228171622332108</v>
       </c>
       <c r="F30">
-        <v>0.2596467629880356</v>
+        <v>0.1175622209507436</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.03278818977535991</v>
+        <v>-0.04897675139993377</v>
       </c>
       <c r="C31">
-        <v>-0.06984168925854838</v>
+        <v>0.01521628092548068</v>
       </c>
       <c r="D31">
-        <v>-0.0001585259077897348</v>
+        <v>0.02916662988195095</v>
       </c>
       <c r="E31">
-        <v>-0.01361230320778009</v>
+        <v>-0.02675076341170939</v>
       </c>
       <c r="F31">
-        <v>0.04203615586515611</v>
+        <v>-0.002410057573861084</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.05515406820128575</v>
+        <v>-0.04934131416164065</v>
       </c>
       <c r="C32">
-        <v>-0.01744298986008513</v>
+        <v>0.0006457771229246754</v>
       </c>
       <c r="D32">
-        <v>0.05500303010089749</v>
+        <v>0.03062832436684305</v>
       </c>
       <c r="E32">
-        <v>-0.07278862785266392</v>
+        <v>-0.02684543561219219</v>
       </c>
       <c r="F32">
-        <v>0.03450838300847965</v>
+        <v>0.002071374365849543</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09523812179773165</v>
+        <v>-0.09199125320580387</v>
       </c>
       <c r="C33">
-        <v>-0.0826935139178788</v>
+        <v>0.01014320794431181</v>
       </c>
       <c r="D33">
-        <v>0.03016548157342832</v>
+        <v>0.09156508970148693</v>
       </c>
       <c r="E33">
-        <v>0.02839845615574574</v>
+        <v>-0.04454123680588181</v>
       </c>
       <c r="F33">
-        <v>0.0562732112476223</v>
+        <v>0.04056807591393488</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06695828959017222</v>
+        <v>-0.06922118987779463</v>
       </c>
       <c r="C34">
-        <v>-0.06167471860444337</v>
+        <v>0.01287656304405652</v>
       </c>
       <c r="D34">
-        <v>0.04183269906531443</v>
+        <v>0.09562001360034419</v>
       </c>
       <c r="E34">
-        <v>-0.01441236436398413</v>
+        <v>-0.0289462970211589</v>
       </c>
       <c r="F34">
-        <v>0.0980274889785855</v>
+        <v>0.04897614184518401</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.01700421015113503</v>
+        <v>-0.02452554441279244</v>
       </c>
       <c r="C35">
-        <v>-0.01005955203390194</v>
+        <v>0.002692279305569533</v>
       </c>
       <c r="D35">
-        <v>-0.002024340278103278</v>
+        <v>0.009929364418013099</v>
       </c>
       <c r="E35">
-        <v>-0.002839578437373734</v>
+        <v>-0.01115884897960905</v>
       </c>
       <c r="F35">
-        <v>0.04045708845855098</v>
+        <v>0.01136233906523827</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02386649198517111</v>
+        <v>-0.02519877813645583</v>
       </c>
       <c r="C36">
-        <v>-0.01432721183577026</v>
+        <v>0.007299470152218233</v>
       </c>
       <c r="D36">
-        <v>-0.01010003667974374</v>
+        <v>0.03771241838975724</v>
       </c>
       <c r="E36">
-        <v>0.009509892398651815</v>
+        <v>-0.01524862288890942</v>
       </c>
       <c r="F36">
-        <v>0.07341897487296978</v>
+        <v>0.008980417509325989</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.01785882303077624</v>
+        <v>-0.002556604122818038</v>
       </c>
       <c r="C38">
-        <v>-0.04019899748564808</v>
+        <v>0.0004412509554156375</v>
       </c>
       <c r="D38">
-        <v>-0.02449907577439817</v>
+        <v>0.002204434409904706</v>
       </c>
       <c r="E38">
-        <v>0.08028689573453016</v>
+        <v>-0.003092400015836111</v>
       </c>
       <c r="F38">
-        <v>-0.08911818984206445</v>
+        <v>-0.002280635502458147</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1054151278754178</v>
+        <v>-0.1110768714202314</v>
       </c>
       <c r="C39">
-        <v>-0.1006048101856027</v>
+        <v>0.01866097003536579</v>
       </c>
       <c r="D39">
-        <v>0.1390688652689019</v>
+        <v>0.1474550337016428</v>
       </c>
       <c r="E39">
-        <v>0.1119833990555909</v>
+        <v>-0.05175691799064105</v>
       </c>
       <c r="F39">
-        <v>0.1475866732053918</v>
+        <v>0.03669314611270508</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.0266343661811049</v>
+        <v>-0.03761545562130481</v>
       </c>
       <c r="C40">
-        <v>-0.06945727026891756</v>
+        <v>0.007631665558998853</v>
       </c>
       <c r="D40">
-        <v>-0.02553530910220635</v>
+        <v>0.03000276226833174</v>
       </c>
       <c r="E40">
-        <v>-0.0327053536223442</v>
+        <v>-0.002286718250931805</v>
       </c>
       <c r="F40">
-        <v>0.03424014811510934</v>
+        <v>-0.01940569847044459</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.03740101021513077</v>
+        <v>-0.02675943404418766</v>
       </c>
       <c r="C41">
-        <v>-0.03020875381777048</v>
+        <v>0.006856862949449294</v>
       </c>
       <c r="D41">
-        <v>0.01872544255721029</v>
+        <v>0.01066867280297894</v>
       </c>
       <c r="E41">
-        <v>0.01419777452224659</v>
+        <v>-0.011425540242291</v>
       </c>
       <c r="F41">
-        <v>0.01488645860929094</v>
+        <v>-0.01176017769892305</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04512021933650997</v>
+        <v>-0.04277121715256881</v>
       </c>
       <c r="C43">
-        <v>-0.04878622911976382</v>
+        <v>0.007238688304640737</v>
       </c>
       <c r="D43">
-        <v>-0.007847913531264206</v>
+        <v>0.02089883769342228</v>
       </c>
       <c r="E43">
-        <v>0.03249876502878538</v>
+        <v>-0.02565484665518595</v>
       </c>
       <c r="F43">
-        <v>0.02479198651074859</v>
+        <v>-0.01137997155951587</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.09998807218431609</v>
+        <v>-0.07352196871868182</v>
       </c>
       <c r="C44">
-        <v>-0.1026203038020675</v>
+        <v>0.0227249072654519</v>
       </c>
       <c r="D44">
-        <v>-0.08016087999739509</v>
+        <v>0.09842449485143837</v>
       </c>
       <c r="E44">
-        <v>0.01282650209258831</v>
+        <v>-0.0653616079145356</v>
       </c>
       <c r="F44">
-        <v>0.1035070899267273</v>
+        <v>0.1753492137728577</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.03872183706728445</v>
+        <v>-0.0237814951915146</v>
       </c>
       <c r="C46">
-        <v>-0.04303297392740242</v>
+        <v>0.004255333460181584</v>
       </c>
       <c r="D46">
-        <v>-0.04096513016337546</v>
+        <v>0.01193139604164357</v>
       </c>
       <c r="E46">
-        <v>-0.004605354173518881</v>
+        <v>-0.02124309122254331</v>
       </c>
       <c r="F46">
-        <v>0.04057144148759349</v>
+        <v>-0.000431693280494568</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.04692720245210658</v>
+        <v>-0.05330374422610409</v>
       </c>
       <c r="C47">
-        <v>-0.04503572231781915</v>
+        <v>0.003529505426547429</v>
       </c>
       <c r="D47">
-        <v>-0.001224283197688423</v>
+        <v>0.0131253265441909</v>
       </c>
       <c r="E47">
-        <v>-0.002325097197703282</v>
+        <v>-0.0233154595339227</v>
       </c>
       <c r="F47">
-        <v>0.01902902645591813</v>
+        <v>-0.04704427936883139</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04591667577732684</v>
+        <v>-0.04836484890226623</v>
       </c>
       <c r="C48">
-        <v>-0.02084056167025894</v>
+        <v>0.003376725956259305</v>
       </c>
       <c r="D48">
-        <v>0.01265460052972679</v>
+        <v>0.04540543364792631</v>
       </c>
       <c r="E48">
-        <v>-0.02732709645563581</v>
+        <v>0.008047544112514531</v>
       </c>
       <c r="F48">
-        <v>0.07032697481121707</v>
+        <v>0.01499880723445892</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2278209511766658</v>
+        <v>-0.2043853288212543</v>
       </c>
       <c r="C49">
-        <v>-0.0367937033042488</v>
+        <v>0.01689860418440949</v>
       </c>
       <c r="D49">
-        <v>0.02283743285935636</v>
+        <v>-0.009799384594260758</v>
       </c>
       <c r="E49">
-        <v>0.006501404556767064</v>
+        <v>-0.04040414084709155</v>
       </c>
       <c r="F49">
-        <v>-0.3249726367376653</v>
+        <v>0.03179358888825471</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04284787129312771</v>
+        <v>-0.04893961295864681</v>
       </c>
       <c r="C50">
-        <v>-0.05009857512612718</v>
+        <v>0.01125772566835492</v>
       </c>
       <c r="D50">
-        <v>0.01683039301687424</v>
+        <v>0.0265244035060423</v>
       </c>
       <c r="E50">
-        <v>0.02758168040205968</v>
+        <v>-0.02875045240301363</v>
       </c>
       <c r="F50">
-        <v>0.06111860299361585</v>
+        <v>0.008123325648147358</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.02471183171514441</v>
+        <v>-0.003224321436916906</v>
       </c>
       <c r="C51">
-        <v>0.004540777827093659</v>
+        <v>0.0007622309994415274</v>
       </c>
       <c r="D51">
-        <v>-0.001840083689192551</v>
+        <v>-0.002056459047701049</v>
       </c>
       <c r="E51">
-        <v>-0.02289992271485398</v>
+        <v>-0.0009303433105720757</v>
       </c>
       <c r="F51">
-        <v>-0.0406839202710355</v>
+        <v>0.004170830292315669</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.05536014328822154</v>
+        <v>-0.1427857760686162</v>
       </c>
       <c r="C52">
-        <v>-0.03148542758746989</v>
+        <v>0.01278248156886152</v>
       </c>
       <c r="D52">
-        <v>0.03359777584756694</v>
+        <v>0.04921598868405184</v>
       </c>
       <c r="E52">
-        <v>0.04773104003623903</v>
+        <v>-0.01820298352526995</v>
       </c>
       <c r="F52">
-        <v>0.01052897016677866</v>
+        <v>0.03519443675121316</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1541893931487427</v>
+        <v>-0.1733906633368079</v>
       </c>
       <c r="C53">
-        <v>-0.06375252491029952</v>
+        <v>0.01568082097475081</v>
       </c>
       <c r="D53">
-        <v>-0.009786443658401991</v>
+        <v>0.01526597382648815</v>
       </c>
       <c r="E53">
-        <v>0.06703376009485666</v>
+        <v>-0.03761502719645109</v>
       </c>
       <c r="F53">
-        <v>-0.0665435829513967</v>
+        <v>0.06661205855135122</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.05654561677854228</v>
+        <v>-0.02329451679145387</v>
       </c>
       <c r="C54">
-        <v>-0.05671403661873863</v>
+        <v>0.01285356554657589</v>
       </c>
       <c r="D54">
-        <v>0.001297214283657751</v>
+        <v>0.03222150390076462</v>
       </c>
       <c r="E54">
-        <v>-0.03895691221216544</v>
+        <v>-0.01331337992184517</v>
       </c>
       <c r="F54">
-        <v>0.142197112897559</v>
+        <v>-0.003003170066727025</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.0805270859391037</v>
+        <v>-0.1143765593657204</v>
       </c>
       <c r="C55">
-        <v>-0.05168298926496703</v>
+        <v>0.0144781783557928</v>
       </c>
       <c r="D55">
-        <v>0.03354796824696769</v>
+        <v>0.01414810626256286</v>
       </c>
       <c r="E55">
-        <v>0.002556074736276517</v>
+        <v>-0.03053651817534984</v>
       </c>
       <c r="F55">
-        <v>-0.02576779904389598</v>
+        <v>0.04886966676560665</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1439256118770053</v>
+        <v>-0.1776517626019581</v>
       </c>
       <c r="C56">
-        <v>-0.09776306947451931</v>
+        <v>0.01317883295098657</v>
       </c>
       <c r="D56">
-        <v>0.02216037727272954</v>
+        <v>0.009274018552656122</v>
       </c>
       <c r="E56">
-        <v>0.04785201654066423</v>
+        <v>-0.04263380244295237</v>
       </c>
       <c r="F56">
-        <v>-0.05086481761078141</v>
+        <v>0.03757542408943002</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04442073368135233</v>
+        <v>-0.04692371116852321</v>
       </c>
       <c r="C58">
-        <v>-0.0345130830796165</v>
+        <v>0.003080595470062385</v>
       </c>
       <c r="D58">
-        <v>-0.03680759441109373</v>
+        <v>0.06444790189687577</v>
       </c>
       <c r="E58">
-        <v>0.01630681525623628</v>
+        <v>-0.01760358971648995</v>
       </c>
       <c r="F58">
-        <v>0.03970613108359081</v>
+        <v>-0.04887573944623872</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.2235074283576584</v>
+        <v>-0.1695409552403669</v>
       </c>
       <c r="C59">
-        <v>0.2288403117136291</v>
+        <v>0.01403820071278319</v>
       </c>
       <c r="D59">
-        <v>0.04068255858563905</v>
+        <v>-0.2315477977195514</v>
       </c>
       <c r="E59">
-        <v>-0.06797146876218624</v>
+        <v>0.04799668786799433</v>
       </c>
       <c r="F59">
-        <v>0.001927543417771047</v>
+        <v>-0.03246917376369965</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2288953190513145</v>
+        <v>-0.2390212180441302</v>
       </c>
       <c r="C60">
-        <v>-0.1409890740176046</v>
+        <v>-0.004338303841952857</v>
       </c>
       <c r="D60">
-        <v>0.07034354453996983</v>
+        <v>0.04900449920454826</v>
       </c>
       <c r="E60">
-        <v>0.00412028938451664</v>
+        <v>-0.01039800759277717</v>
       </c>
       <c r="F60">
-        <v>-0.1549645753940579</v>
+        <v>-0.03890159238822646</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.1093353202016693</v>
+        <v>-0.08581932190410295</v>
       </c>
       <c r="C61">
-        <v>-0.07886592257464543</v>
+        <v>0.01451369765203188</v>
       </c>
       <c r="D61">
-        <v>0.08176424387184622</v>
+        <v>0.1086475391649092</v>
       </c>
       <c r="E61">
-        <v>0.07062088093425511</v>
+        <v>-0.0341699412828106</v>
       </c>
       <c r="F61">
-        <v>0.1501498482360759</v>
+        <v>0.02093401819898337</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1354278930684712</v>
+        <v>-0.1695416662960101</v>
       </c>
       <c r="C62">
-        <v>-0.0760752482585591</v>
+        <v>0.017062457668773</v>
       </c>
       <c r="D62">
-        <v>-0.0007164316464941677</v>
+        <v>0.012552458073547</v>
       </c>
       <c r="E62">
-        <v>0.04971573348033917</v>
+        <v>-0.0391597295507328</v>
       </c>
       <c r="F62">
-        <v>-0.0903506428740581</v>
+        <v>0.01824716870693842</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.05003193097470707</v>
+        <v>-0.04305448365204171</v>
       </c>
       <c r="C63">
-        <v>-0.02911830769415185</v>
+        <v>0.004050588775366102</v>
       </c>
       <c r="D63">
-        <v>0.009848390920173727</v>
+        <v>0.04797751810350723</v>
       </c>
       <c r="E63">
-        <v>0.006509195194331942</v>
+        <v>-0.01657170443872722</v>
       </c>
       <c r="F63">
-        <v>0.07970655741914129</v>
+        <v>0.01039397938955899</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.09359972142707287</v>
+        <v>-0.1122615621555629</v>
       </c>
       <c r="C64">
-        <v>-0.04982655425646598</v>
+        <v>0.01178012534430574</v>
       </c>
       <c r="D64">
-        <v>0.004350628508575191</v>
+        <v>0.0394692293163796</v>
       </c>
       <c r="E64">
-        <v>0.06644787490894796</v>
+        <v>-0.01966033423987672</v>
       </c>
       <c r="F64">
-        <v>0.08077632624053498</v>
+        <v>0.01881312219211654</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1217550183269169</v>
+        <v>-0.1438541743344332</v>
       </c>
       <c r="C65">
-        <v>-0.04803829521958862</v>
+        <v>0.03100042924460713</v>
       </c>
       <c r="D65">
-        <v>0.02533438439011857</v>
+        <v>-0.04653794081144413</v>
       </c>
       <c r="E65">
-        <v>0.0267184570841569</v>
+        <v>-0.002843133973927154</v>
       </c>
       <c r="F65">
-        <v>0.03905861627706237</v>
+        <v>0.04285169588646463</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.122415646549835</v>
+        <v>-0.1332405200363624</v>
       </c>
       <c r="C66">
-        <v>-0.1313965821163129</v>
+        <v>0.01626196048438221</v>
       </c>
       <c r="D66">
-        <v>0.1272842513771264</v>
+        <v>0.1349472027212191</v>
       </c>
       <c r="E66">
-        <v>0.1329200964140983</v>
+        <v>-0.06048741967949037</v>
       </c>
       <c r="F66">
-        <v>0.1058161637317617</v>
+        <v>0.0413417254343783</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06797754067371546</v>
+        <v>-0.06472410222456279</v>
       </c>
       <c r="C67">
-        <v>-0.04832476326144129</v>
+        <v>0.00397078435064748</v>
       </c>
       <c r="D67">
-        <v>-0.03573756040445907</v>
+        <v>0.05448822710789415</v>
       </c>
       <c r="E67">
-        <v>0.07347658612934856</v>
+        <v>-0.02071913414596233</v>
       </c>
       <c r="F67">
-        <v>-0.09160719118265578</v>
+        <v>-0.04174193942762496</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1348781880034259</v>
+        <v>-0.1116396629445102</v>
       </c>
       <c r="C68">
-        <v>0.25530326546593</v>
+        <v>0.02325528549462917</v>
       </c>
       <c r="D68">
-        <v>0.02219714279195073</v>
+        <v>-0.2687662544201708</v>
       </c>
       <c r="E68">
-        <v>0.01576079745776311</v>
+        <v>0.08542737406157169</v>
       </c>
       <c r="F68">
-        <v>0.06015584457282665</v>
+        <v>0.04337051759873939</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.05106356863780142</v>
+        <v>-0.04052895798807438</v>
       </c>
       <c r="C69">
-        <v>-0.02313778194018053</v>
+        <v>0.001212568175997837</v>
       </c>
       <c r="D69">
-        <v>-0.002622187046040223</v>
+        <v>0.009876254983557049</v>
       </c>
       <c r="E69">
-        <v>0.03036067328351549</v>
+        <v>-0.02613672459842791</v>
       </c>
       <c r="F69">
-        <v>0.01306666103825386</v>
+        <v>-0.01545728161710184</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.04977293310003757</v>
+        <v>-0.0651302996677804</v>
       </c>
       <c r="C70">
-        <v>-0.03914099784042055</v>
+        <v>-0.02745167884985414</v>
       </c>
       <c r="D70">
-        <v>0.03270024595429832</v>
+        <v>0.02524035890229935</v>
       </c>
       <c r="E70">
-        <v>0.03570840590833587</v>
+        <v>0.04752572938823248</v>
       </c>
       <c r="F70">
-        <v>0.08971481320307652</v>
+        <v>-0.3143187868447195</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1542679636272643</v>
+        <v>-0.130747611737726</v>
       </c>
       <c r="C71">
-        <v>0.269544619020755</v>
+        <v>0.02732290915574676</v>
       </c>
       <c r="D71">
-        <v>0.01834354978215443</v>
+        <v>-0.28523311079205</v>
       </c>
       <c r="E71">
-        <v>0.04489213081876765</v>
+        <v>0.09282101991536969</v>
       </c>
       <c r="F71">
-        <v>0.06588156238050763</v>
+        <v>0.0457978564923325</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.134193554486036</v>
+        <v>-0.1377176566707658</v>
       </c>
       <c r="C72">
-        <v>-0.01490022803036586</v>
+        <v>0.02399392328861759</v>
       </c>
       <c r="D72">
-        <v>0.005327308488802834</v>
+        <v>0.004733582979406003</v>
       </c>
       <c r="E72">
-        <v>0.05259434011411093</v>
+        <v>-0.04260026178416949</v>
       </c>
       <c r="F72">
-        <v>0.01822282271660298</v>
+        <v>0.02350847139202191</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2166067713391487</v>
+        <v>-0.206874029253892</v>
       </c>
       <c r="C73">
-        <v>-0.084681772972644</v>
+        <v>0.01102365904191037</v>
       </c>
       <c r="D73">
-        <v>0.1173000763879508</v>
+        <v>0.01716653596154702</v>
       </c>
       <c r="E73">
-        <v>0.1043822655485858</v>
+        <v>-0.06638291619556994</v>
       </c>
       <c r="F73">
-        <v>-0.5047249208474681</v>
+        <v>0.02802219130626063</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1005656293314188</v>
+        <v>-0.09407162363540175</v>
       </c>
       <c r="C74">
-        <v>-0.09054630290406013</v>
+        <v>0.01188257358666369</v>
       </c>
       <c r="D74">
-        <v>0.01131155913920596</v>
+        <v>0.0246894836125012</v>
       </c>
       <c r="E74">
-        <v>0.1018909121244855</v>
+        <v>-0.0508640867487628</v>
       </c>
       <c r="F74">
-        <v>-0.04832112855348013</v>
+        <v>0.04235607941527191</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.09843394540720368</v>
+        <v>-0.1303602390807412</v>
       </c>
       <c r="C75">
-        <v>-0.0736312145826642</v>
+        <v>0.026253973796471</v>
       </c>
       <c r="D75">
-        <v>0.004579560056681481</v>
+        <v>0.03454823885714351</v>
       </c>
       <c r="E75">
-        <v>-0.01332426029235729</v>
+        <v>-0.06124329641056286</v>
       </c>
       <c r="F75">
-        <v>-0.02249922318201114</v>
+        <v>0.01201204186254308</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.05307502731181654</v>
+        <v>-0.007243077623702757</v>
       </c>
       <c r="C76">
-        <v>-0.05546901001367007</v>
+        <v>0.001614276627280848</v>
       </c>
       <c r="D76">
-        <v>-0.006195627306169511</v>
+        <v>0.00193891612281287</v>
       </c>
       <c r="E76">
-        <v>-0.009332054307901159</v>
+        <v>-0.006825987781556542</v>
       </c>
       <c r="F76">
-        <v>-0.0412948427780574</v>
+        <v>0.004041960214686269</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.06670318001285226</v>
+        <v>-0.08004204126591237</v>
       </c>
       <c r="C77">
-        <v>-0.02044837594401064</v>
+        <v>0.01069307948869567</v>
       </c>
       <c r="D77">
-        <v>0.03937114605892011</v>
+        <v>0.1080251943578516</v>
       </c>
       <c r="E77">
-        <v>-0.004686397351449274</v>
+        <v>-0.03325360025566177</v>
       </c>
       <c r="F77">
-        <v>0.1473997849561123</v>
+        <v>0.03032785011342379</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1485331387027589</v>
+        <v>-0.1099758474922332</v>
       </c>
       <c r="C78">
-        <v>-0.1363233817266241</v>
+        <v>0.04307458468040783</v>
       </c>
       <c r="D78">
-        <v>-0.1896459064480097</v>
+        <v>0.1176481009929776</v>
       </c>
       <c r="E78">
-        <v>-0.7925807824284319</v>
+        <v>-0.08915875778763555</v>
       </c>
       <c r="F78">
-        <v>0.115379283945215</v>
+        <v>0.07321367093457055</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1331379153774782</v>
+        <v>-0.1637794668435964</v>
       </c>
       <c r="C79">
-        <v>-0.09456556363683258</v>
+        <v>0.02013771811478743</v>
       </c>
       <c r="D79">
-        <v>-0.0068607696193509</v>
+        <v>0.02020324133700332</v>
       </c>
       <c r="E79">
-        <v>0.04186941948979914</v>
+        <v>-0.04909630398376135</v>
       </c>
       <c r="F79">
-        <v>-0.03756261880123061</v>
+        <v>0.01077050351943154</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.07077439486038606</v>
+        <v>-0.080537027853032</v>
       </c>
       <c r="C80">
-        <v>-0.05346873751054368</v>
+        <v>-0.000656541095485779</v>
       </c>
       <c r="D80">
-        <v>0.08730016228964085</v>
+        <v>0.05584567558428502</v>
       </c>
       <c r="E80">
-        <v>0.01600265980592864</v>
+        <v>-0.03063991343614373</v>
       </c>
       <c r="F80">
-        <v>0.07879351152331748</v>
+        <v>-0.01616780275421742</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1287054651648119</v>
+        <v>-0.1237205091358963</v>
       </c>
       <c r="C81">
-        <v>-0.09363215931921409</v>
+        <v>0.03015723432805986</v>
       </c>
       <c r="D81">
-        <v>-0.005754882000433831</v>
+        <v>0.02029894656766366</v>
       </c>
       <c r="E81">
-        <v>0.007601099403183592</v>
+        <v>-0.06172503709677352</v>
       </c>
       <c r="F81">
-        <v>0.03352197390325962</v>
+        <v>0.00113616184687823</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1286601775910031</v>
+        <v>-0.1628151910021707</v>
       </c>
       <c r="C82">
-        <v>-0.06510178121584706</v>
+        <v>0.02055809481062825</v>
       </c>
       <c r="D82">
-        <v>0.01456831339672994</v>
+        <v>0.01661940694422748</v>
       </c>
       <c r="E82">
-        <v>0.07071937831679206</v>
+        <v>-0.03596627850613683</v>
       </c>
       <c r="F82">
-        <v>-0.007254120684985286</v>
+        <v>0.05963180171918867</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.07209053539747147</v>
+        <v>-0.06539237937801125</v>
       </c>
       <c r="C83">
-        <v>-0.08645353272286918</v>
+        <v>0.003952325860140726</v>
       </c>
       <c r="D83">
-        <v>0.03598373205977038</v>
+        <v>0.048430279500614</v>
       </c>
       <c r="E83">
-        <v>0.08979216547940667</v>
+        <v>-0.002897747986360394</v>
       </c>
       <c r="F83">
-        <v>0.06865489579268652</v>
+        <v>-0.04038479984496881</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.0574721629872451</v>
+        <v>-0.06089551224426968</v>
       </c>
       <c r="C84">
-        <v>0.06931350750494238</v>
+        <v>0.01138970863988517</v>
       </c>
       <c r="D84">
-        <v>0.03354510420044449</v>
+        <v>0.05995815130306761</v>
       </c>
       <c r="E84">
-        <v>-0.1327573533314353</v>
+        <v>0.004164622399699902</v>
       </c>
       <c r="F84">
-        <v>0.04137971785300845</v>
+        <v>0.01473444919621656</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1190975987595628</v>
+        <v>-0.1384179408927845</v>
       </c>
       <c r="C85">
-        <v>-0.063370977937665</v>
+        <v>0.02550441855319025</v>
       </c>
       <c r="D85">
-        <v>0.005395322611889406</v>
+        <v>0.016237151231527</v>
       </c>
       <c r="E85">
-        <v>0.05516223266057944</v>
+        <v>-0.04099171563267936</v>
       </c>
       <c r="F85">
-        <v>-0.04541261100628774</v>
+        <v>0.04501240485845468</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.08792841331613088</v>
+        <v>-0.09882388992540402</v>
       </c>
       <c r="C86">
-        <v>-0.02912929692945926</v>
+        <v>-0.006535948416251507</v>
       </c>
       <c r="D86">
-        <v>-0.02870001907657957</v>
+        <v>0.02080765356226755</v>
       </c>
       <c r="E86">
-        <v>-0.2692280087663959</v>
+        <v>-0.1339725943074155</v>
       </c>
       <c r="F86">
-        <v>-0.2043080497152547</v>
+        <v>-0.8457931010989689</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1184080634231646</v>
+        <v>-0.1001801324499339</v>
       </c>
       <c r="C87">
-        <v>-0.0871402909347312</v>
+        <v>0.0256500735716643</v>
       </c>
       <c r="D87">
-        <v>-0.01420962156461068</v>
+        <v>0.07295963102642011</v>
       </c>
       <c r="E87">
-        <v>0.0007757834512180702</v>
+        <v>0.05216406989178403</v>
       </c>
       <c r="F87">
-        <v>0.03906925447827082</v>
+        <v>0.08575264230813572</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05935099884444793</v>
+        <v>-0.06257977557472308</v>
       </c>
       <c r="C88">
-        <v>-0.06675654664609978</v>
+        <v>0.003328170063712349</v>
       </c>
       <c r="D88">
-        <v>0.04262965337517516</v>
+        <v>0.05352157034722445</v>
       </c>
       <c r="E88">
-        <v>0.04078407205648778</v>
+        <v>-0.02622919706078218</v>
       </c>
       <c r="F88">
-        <v>0.02606982425761797</v>
+        <v>0.008374218092574288</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.2261722349356209</v>
+        <v>-0.1321025134830152</v>
       </c>
       <c r="C89">
-        <v>0.3695569371384932</v>
+        <v>0.005923737918058331</v>
       </c>
       <c r="D89">
-        <v>-0.0554669637016056</v>
+        <v>-0.2657773344694473</v>
       </c>
       <c r="E89">
-        <v>-0.03661148884261817</v>
+        <v>0.09088462378057707</v>
       </c>
       <c r="F89">
-        <v>0.0157345911986634</v>
+        <v>0.0282147949206014</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.162506442345279</v>
+        <v>-0.1425265546004855</v>
       </c>
       <c r="C90">
-        <v>0.260408198802172</v>
+        <v>0.02302818044279903</v>
       </c>
       <c r="D90">
-        <v>0.0127136955340282</v>
+        <v>-0.2730276004654704</v>
       </c>
       <c r="E90">
-        <v>0.04723383791246334</v>
+        <v>0.1058305938431231</v>
       </c>
       <c r="F90">
-        <v>0.02296633973131375</v>
+        <v>0.0290605939083606</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.07949067858406919</v>
+        <v>-0.117277499745349</v>
       </c>
       <c r="C91">
-        <v>-0.07388903921899331</v>
+        <v>0.01627685844269488</v>
       </c>
       <c r="D91">
-        <v>0.008225815760475003</v>
+        <v>-0.003844597654350941</v>
       </c>
       <c r="E91">
-        <v>0.005044779894642925</v>
+        <v>-0.05929791501916173</v>
       </c>
       <c r="F91">
-        <v>-0.006347952582486566</v>
+        <v>-0.02476433045387302</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1868526648828377</v>
+        <v>-0.1460610533684483</v>
       </c>
       <c r="C92">
-        <v>0.3006303053823364</v>
+        <v>0.01469496092838839</v>
       </c>
       <c r="D92">
-        <v>-0.02555565852433015</v>
+        <v>-0.3060673875565926</v>
       </c>
       <c r="E92">
-        <v>-0.01140919033028844</v>
+        <v>0.1012781682055481</v>
       </c>
       <c r="F92">
-        <v>0.09932739994957378</v>
+        <v>0.02478812101103684</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.174882218110889</v>
+        <v>-0.1467200645828897</v>
       </c>
       <c r="C93">
-        <v>0.3003317307210043</v>
+        <v>0.01950086764783527</v>
       </c>
       <c r="D93">
-        <v>0.04140720449471742</v>
+        <v>-0.2752267346126749</v>
       </c>
       <c r="E93">
-        <v>0.01677435992787741</v>
+        <v>0.07147283496516763</v>
       </c>
       <c r="F93">
-        <v>0.03713947273312372</v>
+        <v>0.02207404919910326</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1224913744694589</v>
+        <v>-0.1335697758179438</v>
       </c>
       <c r="C94">
-        <v>-0.08357601925796261</v>
+        <v>0.02355106719888678</v>
       </c>
       <c r="D94">
-        <v>-0.01059047653683317</v>
+        <v>0.04749424240263819</v>
       </c>
       <c r="E94">
-        <v>0.02263125085652107</v>
+        <v>-0.06211334919901362</v>
       </c>
       <c r="F94">
-        <v>-0.03209789840159768</v>
+        <v>0.02984506045323662</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1158583628538524</v>
+        <v>-0.1271425802109205</v>
       </c>
       <c r="C95">
-        <v>-0.06473770552508737</v>
+        <v>0.00574019816452474</v>
       </c>
       <c r="D95">
-        <v>-0.02605438738693263</v>
+        <v>0.08999821913877115</v>
       </c>
       <c r="E95">
-        <v>-0.1196188333415996</v>
+        <v>-0.04327471305179936</v>
       </c>
       <c r="F95">
-        <v>0.01491709770874498</v>
+        <v>-0.01247607980652396</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0.0005345944288538997</v>
+        <v>-0.09572964632888269</v>
       </c>
       <c r="C96">
-        <v>-0.001577924416095235</v>
+        <v>-0.9892888430798716</v>
       </c>
       <c r="D96">
-        <v>0.0005361780232116679</v>
+        <v>-0.02097458816368755</v>
       </c>
       <c r="E96">
-        <v>-0.007630992801252873</v>
+        <v>-0.05937779035511958</v>
       </c>
       <c r="F96">
-        <v>0.002147593778166613</v>
+        <v>0.0484030664869386</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1235347858200799</v>
+        <v>-0.1865944455367057</v>
       </c>
       <c r="C97">
-        <v>-0.03145845897719581</v>
+        <v>-0.01207398306918445</v>
       </c>
       <c r="D97">
-        <v>-0.0501034839808622</v>
+        <v>-0.0106519705604316</v>
       </c>
       <c r="E97">
-        <v>0.008217149025362511</v>
+        <v>-0.01638557281156642</v>
       </c>
       <c r="F97">
-        <v>0.1341184277849159</v>
+        <v>-0.1771147313331384</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2328125001679723</v>
+        <v>-0.206181233565739</v>
       </c>
       <c r="C98">
-        <v>-0.07949725475127825</v>
+        <v>0.006778111985775162</v>
       </c>
       <c r="D98">
-        <v>-0.09502382827486647</v>
+        <v>0.01465857331697432</v>
       </c>
       <c r="E98">
-        <v>-0.06438573840659041</v>
+        <v>0.09151088369131261</v>
       </c>
       <c r="F98">
-        <v>-0.2519323609322129</v>
+        <v>-0.1304151638519062</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.06767932387725652</v>
+        <v>-0.05805520492030553</v>
       </c>
       <c r="C99">
-        <v>-0.05868319098949424</v>
+        <v>-0.003190469194526</v>
       </c>
       <c r="D99">
-        <v>-0.008978387931648166</v>
+        <v>0.03449647957420746</v>
       </c>
       <c r="E99">
-        <v>-0.008910421737867467</v>
+        <v>-0.02666049282149728</v>
       </c>
       <c r="F99">
-        <v>-0.03820498683439925</v>
+        <v>0.004928220920989613</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.005269897216015357</v>
+        <v>-0.1244627160206026</v>
       </c>
       <c r="C100">
-        <v>0.0005749227736397497</v>
+        <v>-0.04856276981153396</v>
       </c>
       <c r="D100">
-        <v>0.002941495989319081</v>
+        <v>0.3268590317320527</v>
       </c>
       <c r="E100">
-        <v>0.01739058494417216</v>
+        <v>0.9036776536286453</v>
       </c>
       <c r="F100">
-        <v>0.007734190359082035</v>
+        <v>-0.05779398921640019</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.03556212514478309</v>
+        <v>-0.02741346636229156</v>
       </c>
       <c r="C101">
-        <v>-0.03592425292038751</v>
+        <v>0.009226096019905159</v>
       </c>
       <c r="D101">
-        <v>0.02014375700090242</v>
+        <v>0.03037100713213415</v>
       </c>
       <c r="E101">
-        <v>0.003251164785301975</v>
+        <v>-0.009073864310621295</v>
       </c>
       <c r="F101">
-        <v>0.06050653205500858</v>
+        <v>-0.01148355656362298</v>
       </c>
     </row>
     <row r="102" spans="1:6">
